--- a/Healthcare/BSX.xlsx
+++ b/Healthcare/BSX.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C40E5-A499-AB4A-87E5-F395990EAA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BEACE-3569-FE4E-8577-F7634B56E489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -633,6 +624,39 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -647,39 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1951,9 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>88.79</v>
     <v>50.84</v>
-    <v>0.79579999999999995</v>
-    <v>0.9</v>
-    <v>1.0521000000000001E-2</v>
+    <v>0.79469999999999996</v>
+    <v>0.46</v>
+    <v>5.3220000000000003E-3</v>
+    <v>0.59</v>
+    <v>6.7910000000000002E-3</v>
     <v>USD</v>
     <v>Boston Scientific Corporation is a global developer, manufacturer and marketer of medical devices that are used in a range of interventional medical specialties. Its MedSurg segment includes Endoscopy, Urology and Neuromodulation. Its Endoscopy business develops and manufactures devices to diagnose and treat a broad range of gastrointestinal (GI) and pulmonary conditions with less invasive technologies. Its Urology business develops and manufactures devices to treat various urological conditions for both male and female anatomies. Its Neuromodulation business develops and manufactures devices to treat various neurological movement disorders and manage chronic pain. Its Cardiovascular segment includes Cardiology and Peripheral Interventions. Its Interventional Cardiology Therapies business develops and manufactures technologies for diagnosing and treating coronary artery disease and aortic valve conditions. It also owns the transcarotid artery revascularization (TCAR) platform.</v>
     <v>48000</v>
@@ -1961,24 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>300 Boston Scientific Way, MARLBOROUGH, MA, 01752-1234 US</v>
-    <v>88.02</v>
+    <v>87.34</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45602.933676735935</v>
+    <v>45604.040301967187</v>
     <v>0</v>
-    <v>85.03</v>
-    <v>126071200000</v>
+    <v>86.11</v>
+    <v>127397600000</v>
     <v>BOSTON SCIENTIFIC CORPORATION</v>
     <v>BOSTON SCIENTIFIC CORPORATION</v>
-    <v>88</v>
-    <v>71.455699999999993</v>
-    <v>85.54</v>
+    <v>86.83</v>
+    <v>71.820599999999999</v>
     <v>86.44</v>
+    <v>86.9</v>
+    <v>87.47</v>
     <v>1473828000</v>
     <v>BSX</v>
     <v>BOSTON SCIENTIFIC CORPORATION (XNYS:BSX)</v>
-    <v>656</v>
-    <v>6848669</v>
+    <v>4836499</v>
+    <v>6916099</v>
     <v>1979</v>
   </rv>
   <rv s="2">
@@ -2010,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2030,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2046,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2057,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2129,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2180,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2187,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2854,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,18 +2877,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="e" vm="1">
+      <c r="A1" s="70" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
@@ -2887,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>86.44</v>
+        <v>86.9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>7.7529795215546402</v>
+        <v>7.8345489207305823</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2934,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.0521000000000001E-2</v>
+        <v>5.3220000000000003E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>35.383440920572554</v>
+        <v>35.755711479090657</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2982,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>126071200000</v>
+        <v>127397600000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.374848498308892E-2</v>
+        <v>2.3501227652640237E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3031,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.79579999999999995</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3064,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.63155491001972397</v>
+        <v>-0.63350525226818122</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3130,19 +3142,19 @@
       <c r="E9" s="58">
         <v>2023</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="59">
         <v>2024</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="59">
         <v>2025</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="59">
         <v>2026</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="59">
         <v>2027</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="60">
         <v>2028</v>
       </c>
       <c r="K9" s="13"/>
@@ -3170,22 +3182,22 @@
       <c r="E10" s="24">
         <v>14240000000</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="61">
         <v>16261000000</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="61">
         <v>17992000000</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="61">
         <v>19879000000</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="61">
         <v>21756000000</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="61">
         <v>23781000000</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="62" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -3231,7 +3243,7 @@
         <f t="shared" si="0"/>
         <v>9.3077771649200169E-2</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="63">
         <f>AVERAGE(F11:J11)</f>
         <v>0.10815082838437165</v>
       </c>
@@ -3264,7 +3276,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3293,7 +3305,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3327,7 +3339,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3352,22 +3364,22 @@
       <c r="E15" s="24">
         <v>1570000000</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="61">
         <v>3563000000</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="61">
         <v>4047000000</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="61">
         <v>4612000000</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="61">
         <v>5043000000</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="61">
         <v>5716000000</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="62" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -3413,7 +3425,7 @@
         <f t="shared" si="1"/>
         <v>0.13345231013285752</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="65">
         <f>AVERAGE(F16:J16)</f>
         <v>0.35435621951047269</v>
       </c>
@@ -3465,7 +3477,7 @@
         <f t="shared" si="2"/>
         <v>0.24035995122156342</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3490,22 +3502,22 @@
       <c r="E18" s="24">
         <v>2182000000</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="61">
         <v>2994000000</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="61">
         <v>3482000000</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="61">
         <v>3889000000</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="61">
         <v>4325000000</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="61">
         <v>5048000000</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -3550,7 +3562,7 @@
         <f t="shared" si="3"/>
         <v>0.16716763005780355</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="65">
         <f>AVERAGE(F19:J19)</f>
         <v>0.18625877331416513</v>
       </c>
@@ -3602,7 +3614,7 @@
         <f t="shared" si="4"/>
         <v>0.21227029981918338</v>
       </c>
-      <c r="K20" s="73"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3632,7 +3644,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="62" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -3662,7 +3674,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="74">
+      <c r="K22" s="69">
         <f>AVERAGE(C22:E22)</f>
         <v>7.6895684275866127E-3</v>
       </c>
@@ -3696,17 +3708,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="str" cm="1">
+      <c r="A25" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62" cm="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1979</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3741,14 +3753,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="str" cm="1">
+      <c r="A27" s="74" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Boston Scientific Corporation is a global developer, manufacturer and marketer of medical devices that are used in a range of interventional medical specialties. Its MedSurg segment includes Endoscopy, Urology and Neuromodulation. Its Endoscopy business develops and manufactures devices to diagnose and treat a broad range of gastrointestinal (GI) and pulmonary conditions with less invasive technologies. Its Urology business develops and manufactures devices to treat various urological conditions for both male and female anatomies. Its Neuromodulation business develops and manufactures devices to treat various neurological movement disorders and manage chronic pain. Its Cardiovascular segment includes Cardiology and Peripheral Interventions. Its Interventional Cardiology Therapies business develops and manufactures technologies for diagnosing and treating coronary artery disease and aortic valve conditions. It also owns the transcarotid artery revascularization (TCAR) platform.</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3764,11 +3776,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3784,11 +3796,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3804,11 +3816,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3824,11 +3836,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3844,11 +3856,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3864,11 +3876,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3884,11 +3896,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3904,11 +3916,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
